--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Blake</t>
   </si>
@@ -31,6 +31,51 @@
   </si>
   <si>
     <t>6771 trask avenue westminster, ca 92683</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>wills</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>aw@gmail.com</t>
+  </si>
+  <si>
+    <t>westminster</t>
+  </si>
+  <si>
+    <t>evan</t>
+  </si>
+  <si>
+    <t>mcnaughtan</t>
+  </si>
+  <si>
+    <t>Criminal Defense</t>
+  </si>
+  <si>
+    <t>e4james@gay.com</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>nGrant@hotmail.com</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>your mom</t>
   </si>
 </sst>
 </file>
@@ -380,17 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -413,9 +460,72 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7145555555</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>5555555555</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>4444444</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -427,7 +537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -439,7 +549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Blake</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>your mom</t>
+  </si>
+  <si>
+    <t>714-943-9606</t>
+  </si>
+  <si>
+    <t>714-555-5555</t>
+  </si>
+  <si>
+    <t>555-555-5555</t>
+  </si>
+  <si>
+    <t>714-444-4444</t>
   </si>
 </sst>
 </file>
@@ -428,7 +440,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -450,8 +462,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>7149439606</v>
+      <c r="D1" t="s">
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -470,8 +482,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>7145555555</v>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -490,8 +502,8 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>5555555555</v>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -510,8 +522,8 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>4444444</v>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Blake</t>
   </si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>714-444-4444</t>
+  </si>
+  <si>
+    <t>heiss</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>714-943-9605</t>
+  </si>
+  <si>
+    <t>sdfsadfsadfsadf</t>
+  </si>
+  <si>
+    <t>sdfasdgsadg</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>asdflkasgdn</t>
+  </si>
+  <si>
+    <t>SDKJKGSDJ</t>
+  </si>
+  <si>
+    <t>714-895-6132</t>
   </si>
 </sst>
 </file>
@@ -437,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -530,6 +557,46 @@
       </c>
       <c r="F4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Blake</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>wills</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
@@ -48,12 +45,6 @@
     <t>westminster</t>
   </si>
   <si>
-    <t>evan</t>
-  </si>
-  <si>
-    <t>mcnaughtan</t>
-  </si>
-  <si>
     <t>Criminal Defense</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
     <t>714-444-4444</t>
   </si>
   <si>
-    <t>heiss</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
     <t>714-943-9605</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>sdfasdgsadg</t>
   </si>
   <si>
-    <t>kevin</t>
-  </si>
-  <si>
     <t>asdflkasgdn</t>
   </si>
   <si>
@@ -115,6 +97,27 @@
   </si>
   <si>
     <t>714-895-6132</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Wills</t>
+  </si>
+  <si>
+    <t>Mcnaughtan</t>
+  </si>
+  <si>
+    <t>Heiss</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -490,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -504,59 +507,59 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -564,39 +567,79 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -605,6 +648,8 @@
     <hyperlink ref="E2" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3"/>
     <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
